--- a/projects/Tests/sel-automation/CBF-FreshDirect/Test/Plan/Data/CaseData.xlsx
+++ b/projects/Tests/sel-automation/CBF-FreshDirect/Test/Plan/Data/CaseData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SearchCustomer" sheetId="1" r:id="rId1"/>
     <sheet name="SearchOrder" sheetId="2" r:id="rId2"/>
     <sheet name="CreateCase" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>_rowId</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Customer_ID</t>
-  </si>
-  <si>
     <t>cust1</t>
   </si>
   <si>
@@ -103,6 +100,33 @@
   </si>
   <si>
     <t>case1</t>
+  </si>
+  <si>
+    <t>EmailCRM</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>case2</t>
+  </si>
+  <si>
+    <t>Automatic Selection</t>
+  </si>
+  <si>
+    <t>OAQ - Order Assistance</t>
+  </si>
+  <si>
+    <t>Checking if Order Placed</t>
+  </si>
+  <si>
+    <t>Check order</t>
   </si>
 </sst>
 </file>
@@ -176,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,46 +520,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -584,12 +599,12 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>10270272550</v>
@@ -601,7 +616,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -620,10 +635,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,34 +656,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -676,16 +691,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -695,19 +710,42 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>10270272550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
